--- a/doc/04_テスト/04_テスト仕様書_テスト結果報告書_B2.xlsx
+++ b/doc/04_テスト/04_テスト仕様書_テスト結果報告書_B2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\チーム開発\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\04_テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EF2F7E-099D-4220-8B2F-823370268CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A167A9A8-B352-4528-8933-46EB271E10C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="128">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -1671,6 +1671,133 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出管理ボタンをクリックする</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値エラー
+（参加に失敗しました。IDかパスワードに間違いがありますと表示）</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊東</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋山</t>
+    <rPh sb="0" eb="2">
+      <t>アキヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録成功と表示</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクセイコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録成功</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクセイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事名を入力、頻度と労力を選択して登録（決定）を実行</t>
+    <rPh sb="0" eb="3">
+      <t>カジメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ロウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事がデータベースに登録される</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値エラー</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷口</t>
+    <rPh sb="0" eb="2">
+      <t>タニグチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1756,7 +1883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1772,6 +1899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2052,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M55"/>
+  <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2130,14 +2258,18 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="7">
+        <v>45469</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B55" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B52" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2155,10 +2287,16 @@
       <c r="G4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="7">
+        <v>45469</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
@@ -2178,10 +2316,16 @@
       <c r="G5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="7">
+        <v>45469</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
@@ -2201,10 +2345,16 @@
       <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="7">
+        <v>45469</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
@@ -2225,9 +2375,15 @@
         <v>105</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="7">
+        <v>45469</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
@@ -2252,9 +2408,15 @@
         <v>43</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="7">
+        <v>45469</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
@@ -2275,9 +2437,15 @@
         <v>43</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="7">
+        <v>45469</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
@@ -2298,9 +2466,15 @@
         <v>106</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="7">
+        <v>45469</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
@@ -2321,9 +2495,15 @@
         <v>107</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="7">
+        <v>45469</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
@@ -2349,8 +2529,12 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="7">
+        <v>45469</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
@@ -2370,10 +2554,16 @@
       <c r="G13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="7">
+        <v>45469</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
@@ -2394,9 +2584,15 @@
         <v>108</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="7">
+        <v>45469</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
@@ -2418,12 +2614,18 @@
         <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="7">
+        <v>45469</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
@@ -2441,12 +2643,18 @@
         <v>31</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7">
+        <v>45469</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
@@ -2467,9 +2675,15 @@
         <v>108</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7">
+        <v>45469</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
@@ -2495,8 +2709,12 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7">
+        <v>45469</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
@@ -2515,15 +2733,19 @@
         <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>110</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7">
+        <v>45469</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
@@ -2549,8 +2771,12 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="7">
+        <v>45469</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
@@ -2572,12 +2798,18 @@
         <v>46</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="7">
+        <v>45469</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
@@ -2598,9 +2830,15 @@
         <v>15</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="7">
+        <v>45469</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
@@ -2621,9 +2859,15 @@
         <v>15</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="7">
+        <v>45469</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
@@ -2645,8 +2889,12 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="7">
+        <v>45469</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
@@ -2672,8 +2920,12 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="7">
+        <v>45469</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
@@ -2697,8 +2949,12 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7">
+        <v>45469</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
@@ -2722,8 +2978,12 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="7">
+        <v>45469</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
@@ -2747,8 +3007,12 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="7">
+        <v>45469</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -2774,8 +3038,12 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="7">
+        <v>45469</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
@@ -2797,12 +3065,16 @@
         <v>62</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="7">
+        <v>45469</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
@@ -2817,15 +3089,21 @@
         <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" s="7">
+        <v>45470</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
@@ -2834,21 +3112,29 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="7">
+        <v>45469</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
@@ -2857,9 +3143,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2867,15 +3151,19 @@
         <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="7">
+        <v>45469</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
@@ -2892,15 +3180,19 @@
         <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" s="7">
+        <v>45469</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
@@ -2909,7 +3201,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>35</v>
       </c>
@@ -2917,15 +3211,19 @@
         <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="7">
+        <v>45469</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
@@ -2934,23 +3232,27 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="7">
+        <v>45469</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
@@ -2959,9 +3261,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2969,15 +3269,19 @@
         <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="7">
+        <v>45469</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
@@ -2986,23 +3290,29 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" s="7">
+        <v>45469</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
@@ -3012,22 +3322,24 @@
         <v>37</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" s="7">
+        <v>45469</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
@@ -3036,25 +3348,25 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" s="7">
+        <v>45469</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
@@ -3063,21 +3375,27 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="7">
+        <v>45469</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
@@ -3087,20 +3405,24 @@
         <v>40</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="7">
+        <v>45469</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
@@ -3109,9 +3431,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>35</v>
       </c>
@@ -3119,15 +3439,17 @@
         <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="7">
+        <v>45469</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
@@ -3144,15 +3466,17 @@
         <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="7">
+        <v>45469</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
@@ -3169,15 +3493,17 @@
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="K45" s="7">
+        <v>45469</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
@@ -3186,7 +3512,9 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>35</v>
       </c>
@@ -3194,15 +3522,21 @@
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K46" s="7">
+        <v>45469</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
@@ -3219,15 +3553,21 @@
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K47" s="7">
+        <v>45469</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
@@ -3236,9 +3576,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
         <v>35</v>
       </c>
@@ -3246,15 +3584,21 @@
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K48" s="7">
+        <v>45469</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
@@ -3271,15 +3615,21 @@
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K49" s="7">
+        <v>45469</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
@@ -3296,15 +3646,21 @@
         <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K50" s="7">
+        <v>45469</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
@@ -3321,15 +3677,21 @@
         <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K51" s="7">
+        <v>45469</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
@@ -3346,92 +3708,21 @@
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K52" s="7">
+        <v>45469</v>
+      </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/04_テスト/04_テスト仕様書_テスト結果報告書_B2.xlsx
+++ b/doc/04_テスト/04_テスト仕様書_テスト結果報告書_B2.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\チーム開発\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\04_テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EF2F7E-099D-4220-8B2F-823370268CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9728A947-D6B9-43AB-9F4F-CE69ED829C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9024" yWindow="1860" windowWidth="12276" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="157">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -1674,12 +1675,322 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支出管理ボタンをクリックする</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値エラー
+（参加に失敗しました。IDかパスワードに間違いがありますと表示）</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊東</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋山</t>
+    <rPh sb="0" eb="2">
+      <t>アキヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録成功と表示</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクセイコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録成功</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクセイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事名を入力、頻度と労力を選択して登録（決定）を実行</t>
+    <rPh sb="0" eb="3">
+      <t>カジメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ロウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事がデータベースに登録される</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値エラー</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷口</t>
+    <rPh sb="0" eb="2">
+      <t>タニグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>404エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト観点のまとめ</t>
+    <rPh sb="3" eb="5">
+      <t>カンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象画面・機能</t>
+  </si>
+  <si>
+    <t>テスト観点</t>
+    <rPh sb="3" eb="5">
+      <t>カンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーログイン</t>
+  </si>
+  <si>
+    <t>家新規登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事登録</t>
+    <rPh sb="0" eb="4">
+      <t>カジトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消耗品在庫登録</t>
+    <rPh sb="0" eb="7">
+      <t>ショウモウヒンザイコトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消耗品在庫更新削除</t>
+    <rPh sb="0" eb="5">
+      <t>ショウモウヒンザイコ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>コウシンサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名が空、メールアドレスが空、パスワードが空</t>
+  </si>
+  <si>
+    <t>氏名が空、メールアドレスが空、パスワードが空</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名存在なし、メールアドレス存在なし、パスワード存在なし</t>
+  </si>
+  <si>
+    <t>家の名前が空、パスワードが空</t>
+  </si>
+  <si>
+    <t>家の名前存在なし、家のパスワード存在なし</t>
+  </si>
+  <si>
+    <t>家のIDが空、家のパスワードが空</t>
+  </si>
+  <si>
+    <t>レシート名が空、金額が空、詳細が空</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事名が空</t>
+  </si>
+  <si>
+    <t>ウェルカム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録/ログインボタンをクリック</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事管理ボタンをクリック、支出管理ボタンをクリック、消耗品管理ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動ボタンクリック後</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再振り分けをクリックする</t>
+    <rPh sb="0" eb="2">
+      <t>サイフ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定をクリックする</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精算ボタンをクリック、削除ボタンをクリック、まとめて清算をクリック、支出一覧をクリック</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>シシュツイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事振り分け（自動）</t>
+    <rPh sb="0" eb="3">
+      <t>カジフ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動ボタンをクリック、（自動ボタンクリック後）再振り分けボタンをクリック、決定ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイフ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目名が空、家事名が空</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1713,6 +2024,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1756,7 +2075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1771,6 +2090,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2052,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M55"/>
+  <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2130,14 +2453,18 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="7">
+        <v>45469</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B55" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B52" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2155,10 +2482,16 @@
       <c r="G4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="7">
+        <v>45469</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
@@ -2178,10 +2511,16 @@
       <c r="G5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="7">
+        <v>45469</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
@@ -2201,10 +2540,16 @@
       <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="7">
+        <v>45469</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
@@ -2225,9 +2570,15 @@
         <v>105</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="7">
+        <v>45469</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
@@ -2252,9 +2603,15 @@
         <v>43</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="7">
+        <v>45469</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
@@ -2275,9 +2632,15 @@
         <v>43</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="7">
+        <v>45469</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
@@ -2298,9 +2661,15 @@
         <v>106</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="7">
+        <v>45469</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
@@ -2321,9 +2690,15 @@
         <v>107</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="7">
+        <v>45469</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
@@ -2349,8 +2724,12 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="7">
+        <v>45469</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
@@ -2370,10 +2749,16 @@
       <c r="G13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="7">
+        <v>45469</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
@@ -2394,9 +2779,15 @@
         <v>108</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="7">
+        <v>45469</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
@@ -2418,12 +2809,18 @@
         <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="7">
+        <v>45469</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
@@ -2441,12 +2838,18 @@
         <v>31</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7">
+        <v>45469</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
@@ -2467,9 +2870,15 @@
         <v>108</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7">
+        <v>45469</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
@@ -2495,8 +2904,12 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7">
+        <v>45469</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
@@ -2515,15 +2928,19 @@
         <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>110</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7">
+        <v>45469</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
@@ -2549,8 +2966,12 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="7">
+        <v>45469</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
@@ -2572,12 +2993,18 @@
         <v>46</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="7">
+        <v>45469</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
@@ -2598,9 +3025,15 @@
         <v>15</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="7">
+        <v>45469</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
@@ -2621,9 +3054,15 @@
         <v>15</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="7">
+        <v>45469</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
@@ -2645,8 +3084,12 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="7">
+        <v>45469</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
@@ -2672,8 +3115,12 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="7">
+        <v>45469</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
@@ -2697,8 +3144,12 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7">
+        <v>45469</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
@@ -2722,8 +3173,12 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="7">
+        <v>45469</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
@@ -2747,8 +3202,12 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="7">
+        <v>45469</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -2774,8 +3233,12 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="7">
+        <v>45469</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
@@ -2797,12 +3260,16 @@
         <v>62</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="7">
+        <v>45469</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
@@ -2817,15 +3284,21 @@
         <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" s="7">
+        <v>45470</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
@@ -2834,21 +3307,29 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="7">
+        <v>45469</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
@@ -2857,25 +3338,27 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="7">
+        <v>45469</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
@@ -2889,18 +3372,22 @@
         <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" s="7">
+        <v>45469</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
@@ -2909,7 +3396,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>35</v>
       </c>
@@ -2917,15 +3406,19 @@
         <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="7">
+        <v>45469</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
@@ -2934,23 +3427,27 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="7">
+        <v>45469</v>
+      </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
@@ -2959,9 +3456,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2969,15 +3464,19 @@
         <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="7">
+        <v>45469</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
@@ -2986,23 +3485,29 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" s="7">
+        <v>45469</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
@@ -3012,22 +3517,24 @@
         <v>37</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" s="7">
+        <v>45469</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
@@ -3036,25 +3543,25 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" s="7">
+        <v>45469</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
@@ -3063,21 +3570,27 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="7">
+        <v>45469</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
@@ -3087,20 +3600,24 @@
         <v>40</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="7">
+        <v>45469</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
@@ -3109,9 +3626,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>35</v>
       </c>
@@ -3119,15 +3634,17 @@
         <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="7">
+        <v>45469</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
@@ -3144,15 +3661,17 @@
         <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="7">
+        <v>45469</v>
+      </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
@@ -3169,15 +3688,17 @@
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="K45" s="7">
+        <v>45469</v>
+      </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
@@ -3186,7 +3707,9 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>35</v>
       </c>
@@ -3194,15 +3717,21 @@
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K46" s="7">
+        <v>45469</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
@@ -3219,15 +3748,21 @@
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K47" s="7">
+        <v>45469</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
@@ -3236,9 +3771,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
         <v>35</v>
       </c>
@@ -3246,15 +3779,21 @@
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K48" s="7">
+        <v>45469</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
@@ -3271,15 +3810,21 @@
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K49" s="7">
+        <v>45469</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
@@ -3296,15 +3841,21 @@
         <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K50" s="7">
+        <v>45469</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
@@ -3321,15 +3872,21 @@
         <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K51" s="7">
+        <v>45469</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
@@ -3346,92 +3903,23 @@
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K52" s="7">
+        <v>45469</v>
+      </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3443,8 +3931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA3746F-BE1F-4032-90BA-9782F2CB3397}">
   <dimension ref="B2:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5063,4 +5551,141 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79B07D9-9567-4197-8E66-CB9AF56D312D}">
+  <dimension ref="B2:C17"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="8"/>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>